--- a/data/pca/factorExposure/factorExposure_2009-02-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-27.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01648170227985681</v>
+        <v>0.01597319224407601</v>
       </c>
       <c r="C2">
-        <v>-0.002259162545002394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.001641567802674634</v>
+      </c>
+      <c r="D2">
+        <v>0.01042182385273007</v>
+      </c>
+      <c r="E2">
+        <v>0.01797894541857982</v>
+      </c>
+      <c r="F2">
+        <v>-0.006362002840414694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +748,319 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08083654547300792</v>
+        <v>0.08429009738234509</v>
       </c>
       <c r="C4">
-        <v>-0.02007171435868924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.01598541633656111</v>
+      </c>
+      <c r="D4">
+        <v>0.08760913510046819</v>
+      </c>
+      <c r="E4">
+        <v>-0.05271818270568761</v>
+      </c>
+      <c r="F4">
+        <v>0.01275476555743659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.001625267964876969</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.0001124819317234709</v>
+      </c>
+      <c r="D5">
+        <v>0.001451822333736044</v>
+      </c>
+      <c r="E5">
+        <v>-0.001077644814311767</v>
+      </c>
+      <c r="F5">
+        <v>-0.003283949566967135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1635733336732045</v>
+        <v>0.1675642631829652</v>
       </c>
       <c r="C6">
-        <v>-0.04167617254409107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03805816550270765</v>
+      </c>
+      <c r="D6">
+        <v>-0.00504626674755022</v>
+      </c>
+      <c r="E6">
+        <v>-0.05585805162305189</v>
+      </c>
+      <c r="F6">
+        <v>0.008231502200890693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05499968170891125</v>
+        <v>0.05984433636175244</v>
       </c>
       <c r="C7">
-        <v>-0.002483502986816366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0004857921072321755</v>
+      </c>
+      <c r="D7">
+        <v>0.05870346900398111</v>
+      </c>
+      <c r="E7">
+        <v>-0.03912743959712607</v>
+      </c>
+      <c r="F7">
+        <v>0.05235114994686187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05773172670130873</v>
+        <v>0.05372501053578363</v>
       </c>
       <c r="C8">
-        <v>0.009065299225471996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01080764437859952</v>
+      </c>
+      <c r="D8">
+        <v>0.03766808074566244</v>
+      </c>
+      <c r="E8">
+        <v>0.02234158175477389</v>
+      </c>
+      <c r="F8">
+        <v>-0.02022778950434857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06166800330084037</v>
+        <v>0.06538737011344857</v>
       </c>
       <c r="C9">
-        <v>-0.01502768235361502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.01113344417208032</v>
+      </c>
+      <c r="D9">
+        <v>0.09276108217110758</v>
+      </c>
+      <c r="E9">
+        <v>-0.07181124501408341</v>
+      </c>
+      <c r="F9">
+        <v>0.01815319198153855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1022420360934918</v>
+        <v>0.09656098074938302</v>
       </c>
       <c r="C10">
-        <v>-0.02897628351161287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.02855747980664818</v>
+      </c>
+      <c r="D10">
+        <v>-0.1484562132918143</v>
+      </c>
+      <c r="E10">
+        <v>0.09457905105294845</v>
+      </c>
+      <c r="F10">
+        <v>-0.002052821338416238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08230094333820193</v>
+        <v>0.08007932479408028</v>
       </c>
       <c r="C11">
-        <v>-0.01709980467905859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.01216046263889374</v>
+      </c>
+      <c r="D11">
+        <v>0.1357152993162643</v>
+      </c>
+      <c r="E11">
+        <v>-0.03820067771512917</v>
+      </c>
+      <c r="F11">
+        <v>-0.009678819695188827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08632162255939463</v>
+        <v>0.08156725821420827</v>
       </c>
       <c r="C12">
-        <v>-0.01454975332191671</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.008974751091469139</v>
+      </c>
+      <c r="D12">
+        <v>0.1523861670344035</v>
+      </c>
+      <c r="E12">
+        <v>-0.0405915864812757</v>
+      </c>
+      <c r="F12">
+        <v>0.00465202038198977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.0424078932758162</v>
+        <v>0.04275626002743996</v>
       </c>
       <c r="C13">
-        <v>-0.008292500309405778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.004148136172729886</v>
+      </c>
+      <c r="D13">
+        <v>0.06659987535593265</v>
+      </c>
+      <c r="E13">
+        <v>-0.01124806665976986</v>
+      </c>
+      <c r="F13">
+        <v>0.01559130089348675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02057845194378077</v>
+        <v>0.02307168772399043</v>
       </c>
       <c r="C14">
-        <v>-0.01543524002950092</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01427579341567734</v>
+      </c>
+      <c r="D14">
+        <v>0.04538510923161796</v>
+      </c>
+      <c r="E14">
+        <v>-0.03410068194391577</v>
+      </c>
+      <c r="F14">
+        <v>-0.002607232973536959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03019331799828636</v>
+        <v>0.03233372984975857</v>
       </c>
       <c r="C15">
-        <v>-0.007950364224039377</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.006438032353965437</v>
+      </c>
+      <c r="D15">
+        <v>0.05315291700978901</v>
+      </c>
+      <c r="E15">
+        <v>-0.02773605188166624</v>
+      </c>
+      <c r="F15">
+        <v>0.01309591314422492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.06230207222027309</v>
+        <v>0.06214949625789554</v>
       </c>
       <c r="C16">
-        <v>-0.004818139725369211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.0003015991449986084</v>
+      </c>
+      <c r="D16">
+        <v>0.1467159906676903</v>
+      </c>
+      <c r="E16">
+        <v>-0.04876422681387818</v>
+      </c>
+      <c r="F16">
+        <v>-0.01613479322404631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.003821009123520101</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.001229551012598109</v>
+      </c>
+      <c r="D17">
+        <v>0.003455364476423204</v>
+      </c>
+      <c r="E17">
+        <v>0.0003906701495369856</v>
+      </c>
+      <c r="F17">
+        <v>-0.008270207759367033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.03428460018067447</v>
+        <v>0.04900607307852535</v>
       </c>
       <c r="C18">
-        <v>-0.001147079686912045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.001452392251692209</v>
+      </c>
+      <c r="D18">
+        <v>0.03567391101579865</v>
+      </c>
+      <c r="E18">
+        <v>0.01388441762500203</v>
+      </c>
+      <c r="F18">
+        <v>-0.001544995693676856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0592050886812549</v>
+        <v>0.05941420036391262</v>
       </c>
       <c r="C20">
-        <v>-0.005315862031752737</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.002237105794472207</v>
+      </c>
+      <c r="D20">
+        <v>0.09859162892678754</v>
+      </c>
+      <c r="E20">
+        <v>-0.06685380170193364</v>
+      </c>
+      <c r="F20">
+        <v>-0.0113011669492416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04270766233497177</v>
+        <v>0.04440496144857491</v>
       </c>
       <c r="C21">
-        <v>-0.01154209890391326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.008907822153059353</v>
+      </c>
+      <c r="D21">
+        <v>0.0555609090200171</v>
+      </c>
+      <c r="E21">
+        <v>0.009901231138989726</v>
+      </c>
+      <c r="F21">
+        <v>0.004908305290384668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04525128881580189</v>
+        <v>0.04320303161258171</v>
       </c>
       <c r="C22">
-        <v>-0.004524979004339993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.002348893496674617</v>
+      </c>
+      <c r="D22">
+        <v>0.02324632260385828</v>
+      </c>
+      <c r="E22">
+        <v>0.03778674972636692</v>
+      </c>
+      <c r="F22">
+        <v>-0.1269096302738248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04526047071302702</v>
+        <v>0.04321088654148914</v>
       </c>
       <c r="C23">
-        <v>-0.004527815579451637</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.002351395233687666</v>
+      </c>
+      <c r="D23">
+        <v>0.02324047940831</v>
+      </c>
+      <c r="E23">
+        <v>0.03781235437207895</v>
+      </c>
+      <c r="F23">
+        <v>-0.1269483604225178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07021736366845703</v>
+        <v>0.06910491550618331</v>
       </c>
       <c r="C24">
-        <v>-0.006162964242432535</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.001727617225265578</v>
+      </c>
+      <c r="D24">
+        <v>0.1375698904117081</v>
+      </c>
+      <c r="E24">
+        <v>-0.04478685245675151</v>
+      </c>
+      <c r="F24">
+        <v>0.001237562460391579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07587402201329424</v>
+        <v>0.07388447294044136</v>
       </c>
       <c r="C25">
-        <v>-0.009041672373153656</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.004709804365982954</v>
+      </c>
+      <c r="D25">
+        <v>0.1255493755423127</v>
+      </c>
+      <c r="E25">
+        <v>-0.02688931589953701</v>
+      </c>
+      <c r="F25">
+        <v>0.02066889740779737</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05575958072877813</v>
+        <v>0.06022287398749902</v>
       </c>
       <c r="C26">
-        <v>-0.01897761969448046</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01623166035802169</v>
+      </c>
+      <c r="D26">
+        <v>0.06766623524276577</v>
+      </c>
+      <c r="E26">
+        <v>-0.004284394416154287</v>
+      </c>
+      <c r="F26">
+        <v>-0.007023963855132462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1228,219 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1623895161417088</v>
+        <v>0.1661970294047518</v>
       </c>
       <c r="C28">
-        <v>-0.03672061224884698</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.03724948050850749</v>
+      </c>
+      <c r="D28">
+        <v>-0.2372342558083404</v>
+      </c>
+      <c r="E28">
+        <v>0.02938026047494039</v>
+      </c>
+      <c r="F28">
+        <v>0.05314653497658822</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02432837414678353</v>
+        <v>0.02694271981282795</v>
       </c>
       <c r="C29">
-        <v>-0.009811136552612027</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.009286055801782997</v>
+      </c>
+      <c r="D29">
+        <v>0.04202377939568212</v>
+      </c>
+      <c r="E29">
+        <v>0.003949177417634959</v>
+      </c>
+      <c r="F29">
+        <v>-0.02129190440020405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.04155188485807645</v>
+        <v>0.04343569705704376</v>
       </c>
       <c r="C30">
-        <v>-0.004178271976873286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.0009172787875541564</v>
+      </c>
+      <c r="D30">
+        <v>0.07853698973436164</v>
+      </c>
+      <c r="E30">
+        <v>-0.09066021859769074</v>
+      </c>
+      <c r="F30">
+        <v>0.0719099603837495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05173336904884935</v>
+        <v>0.05177858872195516</v>
       </c>
       <c r="C31">
-        <v>-0.02033480083848642</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.0177462690285463</v>
+      </c>
+      <c r="D31">
+        <v>0.03726963908577491</v>
+      </c>
+      <c r="E31">
+        <v>-0.01068159959209319</v>
+      </c>
+      <c r="F31">
+        <v>-0.03272738046408794</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04310896236150996</v>
+        <v>0.04842094827165454</v>
       </c>
       <c r="C32">
-        <v>-0.001501365737679262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.001131692873027427</v>
+      </c>
+      <c r="D32">
+        <v>0.04144320295653634</v>
+      </c>
+      <c r="E32">
+        <v>-0.01602757114233373</v>
+      </c>
+      <c r="F32">
+        <v>-0.02160116421401221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0806927446973341</v>
+        <v>0.08350810793541556</v>
       </c>
       <c r="C33">
-        <v>-0.01358827727338867</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008254243785512773</v>
+      </c>
+      <c r="D33">
+        <v>0.1194195828740105</v>
+      </c>
+      <c r="E33">
+        <v>-0.05111406515146206</v>
+      </c>
+      <c r="F33">
+        <v>-0.01225885617720327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.05900493550881044</v>
+        <v>0.05907650132068357</v>
       </c>
       <c r="C34">
-        <v>-0.0145745588514389</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.00991223651671521</v>
+      </c>
+      <c r="D34">
+        <v>0.1279594370605583</v>
+      </c>
+      <c r="E34">
+        <v>-0.04834131468678677</v>
+      </c>
+      <c r="F34">
+        <v>0.02347106273570536</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02694488543472155</v>
+        <v>0.02840257139858999</v>
       </c>
       <c r="C35">
-        <v>-0.005768944469564392</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.004818207589766078</v>
+      </c>
+      <c r="D35">
+        <v>0.01735719818683356</v>
+      </c>
+      <c r="E35">
+        <v>-0.01278315878118444</v>
+      </c>
+      <c r="F35">
+        <v>-0.01981253156071965</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02239149996387417</v>
+        <v>0.02717477133856535</v>
       </c>
       <c r="C36">
-        <v>-0.008709247831562912</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007773648234755313</v>
+      </c>
+      <c r="D36">
+        <v>0.04889152714158906</v>
+      </c>
+      <c r="E36">
+        <v>-0.04002639569380596</v>
+      </c>
+      <c r="F36">
+        <v>-0.01283401767547061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003459202487396934</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.0007845260529588685</v>
+      </c>
+      <c r="D37">
+        <v>0.004664396285228421</v>
+      </c>
+      <c r="E37">
+        <v>0.001351139118919407</v>
+      </c>
+      <c r="F37">
+        <v>-0.0002763726471622689</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1448,79 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.08744124546380776</v>
+        <v>0.08133759952972866</v>
       </c>
       <c r="C39">
-        <v>-0.01927775644216262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01375857056208022</v>
+      </c>
+      <c r="D39">
+        <v>0.153191333881205</v>
+      </c>
+      <c r="E39">
+        <v>-0.02710920069481064</v>
+      </c>
+      <c r="F39">
+        <v>-0.006312142586891004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04453244098642126</v>
+        <v>0.04998084814269001</v>
       </c>
       <c r="C40">
-        <v>-0.01311100815184662</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.01113347657972584</v>
+      </c>
+      <c r="D40">
+        <v>0.05911028182234258</v>
+      </c>
+      <c r="E40">
+        <v>0.01130569420230609</v>
+      </c>
+      <c r="F40">
+        <v>0.003579788531943909</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02731828707672388</v>
+        <v>0.02912206745651868</v>
       </c>
       <c r="C41">
-        <v>-0.009043537856431968</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.008189154467901636</v>
+      </c>
+      <c r="D41">
+        <v>0.0251584974017043</v>
+      </c>
+      <c r="E41">
+        <v>0.004648860355022141</v>
+      </c>
+      <c r="F41">
+        <v>-0.005794708263351663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1528,179 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04227484541349041</v>
+        <v>0.04128667485946053</v>
       </c>
       <c r="C43">
-        <v>-0.01041183679848397</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.009072638807739335</v>
+      </c>
+      <c r="D43">
+        <v>0.03606093617595593</v>
+      </c>
+      <c r="E43">
+        <v>0.004061759088950557</v>
+      </c>
+      <c r="F43">
+        <v>-0.02472721593465128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05617354662374874</v>
+        <v>0.06403199746369471</v>
       </c>
       <c r="C44">
-        <v>-0.02114774654143428</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.01858220268954017</v>
+      </c>
+      <c r="D44">
+        <v>0.0898448199224911</v>
+      </c>
+      <c r="E44">
+        <v>-0.2349684287794074</v>
+      </c>
+      <c r="F44">
+        <v>0.06871521422760263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001923217315091682</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-5.460000154661598e-05</v>
+      </c>
+      <c r="D45">
+        <v>5.252969221613965e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.000404883397062999</v>
+      </c>
+      <c r="F45">
+        <v>0.0002343120590304014</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02547745217913249</v>
+        <v>0.02633487792345924</v>
       </c>
       <c r="C46">
-        <v>-0.005919786967851902</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.004662653629534143</v>
+      </c>
+      <c r="D46">
+        <v>0.02807190024905109</v>
+      </c>
+      <c r="E46">
+        <v>0.000518786332594973</v>
+      </c>
+      <c r="F46">
+        <v>-0.03345043204921575</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05196399408294497</v>
+        <v>0.05129276672158978</v>
       </c>
       <c r="C47">
-        <v>-0.007883956898806969</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.005763349103124264</v>
+      </c>
+      <c r="D47">
+        <v>0.02225672413823045</v>
+      </c>
+      <c r="E47">
+        <v>0.01321245257369361</v>
+      </c>
+      <c r="F47">
+        <v>-0.05247345968250967</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04728592875746088</v>
+        <v>0.05117761444597509</v>
       </c>
       <c r="C48">
-        <v>-0.006477936214179781</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.004036244280985384</v>
+      </c>
+      <c r="D48">
+        <v>0.06396748396565964</v>
+      </c>
+      <c r="E48">
+        <v>-0.01061700755589102</v>
+      </c>
+      <c r="F48">
+        <v>0.02261819288535711</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1935087690304268</v>
+        <v>0.1969937849573233</v>
       </c>
       <c r="C49">
-        <v>-0.03290624126316509</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.02757132756841204</v>
+      </c>
+      <c r="D49">
+        <v>-0.005082861658645813</v>
+      </c>
+      <c r="E49">
+        <v>-0.04167738883691493</v>
+      </c>
+      <c r="F49">
+        <v>0.03364368511116026</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04952857772449309</v>
+        <v>0.05178827588761027</v>
       </c>
       <c r="C50">
-        <v>-0.01558791075012651</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01373641664657624</v>
+      </c>
+      <c r="D50">
+        <v>0.03387403678051584</v>
+      </c>
+      <c r="E50">
+        <v>-0.0219335441241052</v>
+      </c>
+      <c r="F50">
+        <v>-0.02001278607821489</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1708,119 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1446955684959598</v>
+        <v>0.1390684965744206</v>
       </c>
       <c r="C52">
-        <v>-0.02742799243810114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.02255592115720938</v>
+      </c>
+      <c r="D52">
+        <v>0.04382691135072569</v>
+      </c>
+      <c r="E52">
+        <v>-0.05840081885491354</v>
+      </c>
+      <c r="F52">
+        <v>-0.02389690752987593</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1759650331450183</v>
+        <v>0.1679509414352135</v>
       </c>
       <c r="C53">
-        <v>-0.03362282031746862</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.02879190485086429</v>
+      </c>
+      <c r="D53">
+        <v>0.02097932747149965</v>
+      </c>
+      <c r="E53">
+        <v>-0.1164866878256372</v>
+      </c>
+      <c r="F53">
+        <v>-0.01604947086859078</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01159647715657705</v>
+        <v>0.01517876753683342</v>
       </c>
       <c r="C54">
-        <v>-0.01142753005259479</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01046112306854025</v>
+      </c>
+      <c r="D54">
+        <v>0.03426325379022517</v>
+      </c>
+      <c r="E54">
+        <v>-0.007897102504992957</v>
+      </c>
+      <c r="F54">
+        <v>-0.01464943989944955</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1203728282045193</v>
+        <v>0.1175788525466564</v>
       </c>
       <c r="C55">
-        <v>-0.02818440990322741</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.02459487012674934</v>
+      </c>
+      <c r="D55">
+        <v>0.022232893034606</v>
+      </c>
+      <c r="E55">
+        <v>-0.07011546152706963</v>
+      </c>
+      <c r="F55">
+        <v>-0.04853723749387197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1806645206593876</v>
+        <v>0.1743538766316204</v>
       </c>
       <c r="C56">
-        <v>-0.03122030014424277</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.02695074665843244</v>
+      </c>
+      <c r="D56">
+        <v>0.009699868335549412</v>
+      </c>
+      <c r="E56">
+        <v>-0.0755822054444662</v>
+      </c>
+      <c r="F56">
+        <v>-0.04099819885832121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1828,379 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04582398375350018</v>
+        <v>0.04572737747026216</v>
       </c>
       <c r="C58">
-        <v>-0.004883747696049595</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.0008429980728399372</v>
+      </c>
+      <c r="D58">
+        <v>0.09975163316344894</v>
+      </c>
+      <c r="E58">
+        <v>0.007921566794254748</v>
+      </c>
+      <c r="F58">
+        <v>-0.04168468917208972</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.178332771638623</v>
+        <v>0.1827143854936164</v>
       </c>
       <c r="C59">
-        <v>-0.03508811520275974</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.03531705346048673</v>
+      </c>
+      <c r="D59">
+        <v>-0.2016171677337569</v>
+      </c>
+      <c r="E59">
+        <v>0.08259974993281669</v>
+      </c>
+      <c r="F59">
+        <v>-0.004343542883522808</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2182923277464336</v>
+        <v>0.2141337530169325</v>
       </c>
       <c r="C60">
-        <v>-0.01232217706103343</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.006333165723742635</v>
+      </c>
+      <c r="D60">
+        <v>0.02095697690255203</v>
+      </c>
+      <c r="E60">
+        <v>0.01482181869726589</v>
+      </c>
+      <c r="F60">
+        <v>-0.01000962591482359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.06900230993463646</v>
+        <v>0.06540432997981238</v>
       </c>
       <c r="C61">
-        <v>-0.01538542274741733</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01056743636212193</v>
+      </c>
+      <c r="D61">
+        <v>0.1212946709867151</v>
+      </c>
+      <c r="E61">
+        <v>-0.01496800660671738</v>
+      </c>
+      <c r="F61">
+        <v>-0.016023781644666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1685009312927637</v>
+        <v>0.1650054701411038</v>
       </c>
       <c r="C62">
-        <v>-0.03296159078094743</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.02866269152270514</v>
+      </c>
+      <c r="D62">
+        <v>0.01075757664095833</v>
+      </c>
+      <c r="E62">
+        <v>-0.06669059671847002</v>
+      </c>
+      <c r="F62">
+        <v>-0.04827687603577944</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.03841645194236329</v>
+        <v>0.04383995545770028</v>
       </c>
       <c r="C63">
-        <v>-0.005055941144226759</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002861543919162133</v>
+      </c>
+      <c r="D63">
+        <v>0.07082901211192451</v>
+      </c>
+      <c r="E63">
+        <v>-0.01244277361527426</v>
+      </c>
+      <c r="F63">
+        <v>-0.02172487155198508</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1115317538370396</v>
+        <v>0.109782445704553</v>
       </c>
       <c r="C64">
-        <v>-0.0215890825560094</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01709731106935311</v>
+      </c>
+      <c r="D64">
+        <v>0.05546489110101026</v>
+      </c>
+      <c r="E64">
+        <v>-0.0350428180495667</v>
+      </c>
+      <c r="F64">
+        <v>-0.006047855542377602</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1540979632342837</v>
+        <v>0.1579371725041387</v>
       </c>
       <c r="C65">
-        <v>-0.04814885209076796</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.0450368377385079</v>
+      </c>
+      <c r="D65">
+        <v>-0.03826139548874611</v>
+      </c>
+      <c r="E65">
+        <v>-0.0585756157907738</v>
+      </c>
+      <c r="F65">
+        <v>-0.004718048286024064</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1058026729524317</v>
+        <v>0.09884299040116661</v>
       </c>
       <c r="C66">
-        <v>-0.01766930926510877</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01147514359916535</v>
+      </c>
+      <c r="D66">
+        <v>0.138188856648206</v>
+      </c>
+      <c r="E66">
+        <v>-0.02923512981886845</v>
+      </c>
+      <c r="F66">
+        <v>-0.003815836759929152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05691442523685156</v>
+        <v>0.04799986219503401</v>
       </c>
       <c r="C67">
-        <v>-0.006189812376566328</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003246001419360674</v>
+      </c>
+      <c r="D67">
+        <v>0.0627534151351489</v>
+      </c>
+      <c r="E67">
+        <v>0.05812694892940277</v>
+      </c>
+      <c r="F67">
+        <v>-0.0665528265106264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1308952541096845</v>
+        <v>0.1355869610697416</v>
       </c>
       <c r="C68">
-        <v>-0.04314885196636971</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04562094502983471</v>
+      </c>
+      <c r="D68">
+        <v>-0.2521886649218437</v>
+      </c>
+      <c r="E68">
+        <v>0.04184694749164294</v>
+      </c>
+      <c r="F68">
+        <v>0.08568227969522224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0393896467865315</v>
+        <v>0.03917155109821174</v>
       </c>
       <c r="C69">
-        <v>-0.004167016081038945</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.002876414722191504</v>
+      </c>
+      <c r="D69">
+        <v>0.01312122727930589</v>
+      </c>
+      <c r="E69">
+        <v>-0.01534797136159649</v>
+      </c>
+      <c r="F69">
+        <v>-0.05445211429380371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.07126209211578431</v>
+        <v>0.07219243765052158</v>
       </c>
       <c r="C70">
-        <v>0.02098343982574417</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02304996086789907</v>
+      </c>
+      <c r="D70">
+        <v>0.05222269673538466</v>
+      </c>
+      <c r="E70">
+        <v>0.3461701334701587</v>
+      </c>
+      <c r="F70">
+        <v>-0.1655430846306223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1528444758685324</v>
+        <v>0.1584991534970172</v>
       </c>
       <c r="C71">
-        <v>-0.05030605114301932</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05194849999729494</v>
+      </c>
+      <c r="D71">
+        <v>-0.2562210132508725</v>
+      </c>
+      <c r="E71">
+        <v>0.04608487974744869</v>
+      </c>
+      <c r="F71">
+        <v>0.09469630202842319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1402097325830219</v>
+        <v>0.1463602200061392</v>
       </c>
       <c r="C72">
-        <v>-0.03712031762456868</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03470747642201651</v>
+      </c>
+      <c r="D72">
+        <v>0.01490414041987441</v>
+      </c>
+      <c r="E72">
+        <v>-0.0636944557278751</v>
+      </c>
+      <c r="F72">
+        <v>-0.03834793744149229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1931324921613095</v>
+        <v>0.2004659723095361</v>
       </c>
       <c r="C73">
-        <v>-0.02611505158442336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01954020822786508</v>
+      </c>
+      <c r="D73">
+        <v>0.034892056449005</v>
+      </c>
+      <c r="E73">
+        <v>-0.07122844322689365</v>
+      </c>
+      <c r="F73">
+        <v>-0.06678910796868842</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08669685278819937</v>
+        <v>0.08696640972950451</v>
       </c>
       <c r="C74">
-        <v>-0.0181924653622204</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01560691826056435</v>
+      </c>
+      <c r="D74">
+        <v>0.0206139971196496</v>
+      </c>
+      <c r="E74">
+        <v>-0.080734895696214</v>
+      </c>
+      <c r="F74">
+        <v>-0.02195818930494603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.123873471991793</v>
+        <v>0.1169992700657356</v>
       </c>
       <c r="C75">
-        <v>-0.03648113009839081</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03204266591406206</v>
+      </c>
+      <c r="D75">
+        <v>0.03522381531958466</v>
+      </c>
+      <c r="E75">
+        <v>-0.06236272239232433</v>
+      </c>
+      <c r="F75">
+        <v>-0.06288612572775168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2208,519 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07420834504956741</v>
+        <v>0.08737088949301523</v>
       </c>
       <c r="C77">
-        <v>-0.01449133131414266</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.01140387141544448</v>
+      </c>
+      <c r="D77">
+        <v>0.1246251587448838</v>
+      </c>
+      <c r="E77">
+        <v>-0.05489811688608378</v>
+      </c>
+      <c r="F77">
+        <v>0.01716987041721236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09008845985330155</v>
+        <v>0.09326399037409609</v>
       </c>
       <c r="C78">
-        <v>-0.0429129344679878</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03991065507695311</v>
+      </c>
+      <c r="D78">
+        <v>0.1400348876928009</v>
+      </c>
+      <c r="E78">
+        <v>-0.05721901131090835</v>
+      </c>
+      <c r="F78">
+        <v>0.02232149799432652</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1670962407591924</v>
+        <v>0.1630694322735888</v>
       </c>
       <c r="C79">
-        <v>-0.03627616053951548</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.03138295967877858</v>
+      </c>
+      <c r="D79">
+        <v>0.0298732660850677</v>
+      </c>
+      <c r="E79">
+        <v>-0.04181460219139693</v>
+      </c>
+      <c r="F79">
+        <v>-0.04317459694092608</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07649231635726157</v>
+        <v>0.07387490268039609</v>
       </c>
       <c r="C80">
-        <v>-0.004930637814766826</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.001815965392090829</v>
+      </c>
+      <c r="D80">
+        <v>0.055298925379579</v>
+      </c>
+      <c r="E80">
+        <v>0.02192161023610312</v>
+      </c>
+      <c r="F80">
+        <v>-0.04603652896962551</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1107015765441685</v>
+        <v>0.105194303499084</v>
       </c>
       <c r="C81">
-        <v>-0.03755110262317671</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03478634614894969</v>
+      </c>
+      <c r="D81">
+        <v>0.001458713540342474</v>
+      </c>
+      <c r="E81">
+        <v>-0.04329715869375971</v>
+      </c>
+      <c r="F81">
+        <v>-0.06580754012648736</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1587764624731185</v>
+        <v>0.1574369538747702</v>
       </c>
       <c r="C82">
-        <v>-0.03572313019236125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.03161989821576319</v>
+      </c>
+      <c r="D82">
+        <v>-0.005286056721487995</v>
+      </c>
+      <c r="E82">
+        <v>-0.1019845793733269</v>
+      </c>
+      <c r="F82">
+        <v>-0.01138698346033852</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05376249613023181</v>
+        <v>0.04970837493145218</v>
       </c>
       <c r="C83">
-        <v>-0.00673755877563556</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.004160576911180759</v>
+      </c>
+      <c r="D83">
+        <v>0.0501366549586502</v>
+      </c>
+      <c r="E83">
+        <v>0.01698385368736204</v>
+      </c>
+      <c r="F83">
+        <v>-0.001942098735999235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05234166685812169</v>
+        <v>0.04967815298764431</v>
       </c>
       <c r="C84">
-        <v>-0.01425536432241046</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01127010311038179</v>
+      </c>
+      <c r="D84">
+        <v>0.07624347964759477</v>
+      </c>
+      <c r="E84">
+        <v>-0.007955180906915774</v>
+      </c>
+      <c r="F84">
+        <v>-0.003942891626697135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1389117920138712</v>
+        <v>0.1339144896545355</v>
       </c>
       <c r="C85">
-        <v>-0.03943982360833993</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03520162542492421</v>
+      </c>
+      <c r="D85">
+        <v>0.02257331206912954</v>
+      </c>
+      <c r="E85">
+        <v>-0.08708328057863658</v>
+      </c>
+      <c r="F85">
+        <v>-0.02611958826040797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0850598152497553</v>
+        <v>0.08204889239548213</v>
       </c>
       <c r="C86">
-        <v>0.001311188471740839</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.005926705225558042</v>
+      </c>
+      <c r="D86">
+        <v>0.09779081639155625</v>
+      </c>
+      <c r="E86">
+        <v>0.5821797037404509</v>
+      </c>
+      <c r="F86">
+        <v>-0.5508185462798348</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.08698687971695777</v>
+        <v>0.08794110927966681</v>
       </c>
       <c r="C87">
-        <v>-0.02946821865207352</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02475267436580853</v>
+      </c>
+      <c r="D87">
+        <v>0.0848400380240128</v>
+      </c>
+      <c r="E87">
+        <v>-0.01497102115300285</v>
+      </c>
+      <c r="F87">
+        <v>0.1139002005772837</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06269640074561611</v>
+        <v>0.06146274179255032</v>
       </c>
       <c r="C88">
-        <v>-0.008136738655990629</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.005319871026193792</v>
+      </c>
+      <c r="D88">
+        <v>0.06675865632088819</v>
+      </c>
+      <c r="E88">
+        <v>-0.01841618073607391</v>
+      </c>
+      <c r="F88">
+        <v>-0.01653587819193731</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.139292801526325</v>
+        <v>0.1431669605284742</v>
       </c>
       <c r="C89">
-        <v>-0.02313688520096376</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.02574375707608108</v>
+      </c>
+      <c r="D89">
+        <v>-0.2260215972609794</v>
+      </c>
+      <c r="E89">
+        <v>0.04033400082035159</v>
+      </c>
+      <c r="F89">
+        <v>0.09074878269876514</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1665399193937093</v>
+        <v>0.1751045202194084</v>
       </c>
       <c r="C90">
-        <v>-0.04748422784876998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.04980369070191992</v>
+      </c>
+      <c r="D90">
+        <v>-0.2455822564979134</v>
+      </c>
+      <c r="E90">
+        <v>0.06744479164866821</v>
+      </c>
+      <c r="F90">
+        <v>0.122986267163908</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1253003431426014</v>
+        <v>0.119703204424758</v>
       </c>
       <c r="C91">
-        <v>-0.0298675441423713</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.02689206389994962</v>
+      </c>
+      <c r="D91">
+        <v>-0.01052234086091009</v>
+      </c>
+      <c r="E91">
+        <v>-0.03251256696867146</v>
+      </c>
+      <c r="F91">
+        <v>-0.09910462737202051</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1622096484794781</v>
+        <v>0.1657340530752534</v>
       </c>
       <c r="C92">
-        <v>-0.03807649870196515</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.03970626742736501</v>
+      </c>
+      <c r="D92">
+        <v>-0.2842262359093821</v>
+      </c>
+      <c r="E92">
+        <v>0.05445435727553882</v>
+      </c>
+      <c r="F92">
+        <v>0.08421993006787086</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1677873657093975</v>
+        <v>0.1763386360265832</v>
       </c>
       <c r="C93">
-        <v>-0.04275947752484109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.04409546700149613</v>
+      </c>
+      <c r="D93">
+        <v>-0.2383277001551341</v>
+      </c>
+      <c r="E93">
+        <v>0.02893527581928956</v>
+      </c>
+      <c r="F93">
+        <v>0.06192233936948934</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1195211801741118</v>
+        <v>0.1142088852115106</v>
       </c>
       <c r="C94">
-        <v>-0.03109773462924982</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.0266572540793203</v>
+      </c>
+      <c r="D94">
+        <v>0.04590438824644493</v>
+      </c>
+      <c r="E94">
+        <v>-0.05723931866371923</v>
+      </c>
+      <c r="F94">
+        <v>-0.06149717072954491</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1217964126094641</v>
+        <v>0.1248109698142295</v>
       </c>
       <c r="C95">
-        <v>-0.01386035438177662</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.007897840385266107</v>
+      </c>
+      <c r="D95">
+        <v>0.123003491988485</v>
+      </c>
+      <c r="E95">
+        <v>-0.008456564839195369</v>
+      </c>
+      <c r="F95">
+        <v>-0.03785291180225215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1879609112777559</v>
+        <v>0.1640067586855458</v>
       </c>
       <c r="C96">
-        <v>0.9762586398385205</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9796197343943518</v>
+      </c>
+      <c r="D96">
+        <v>-0.05938268630814984</v>
+      </c>
+      <c r="E96">
+        <v>-0.06134937947629854</v>
+      </c>
+      <c r="F96">
+        <v>-0.01215913381391379</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1910507469828017</v>
+        <v>0.1948039507789812</v>
       </c>
       <c r="C97">
-        <v>-0.009160329650325505</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.003783295630608231</v>
+      </c>
+      <c r="D97">
+        <v>-0.02055525395945278</v>
+      </c>
+      <c r="E97">
+        <v>0.1508508268551379</v>
+      </c>
+      <c r="F97">
+        <v>-0.08373784944899092</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1941430891169065</v>
+        <v>0.201084314645391</v>
       </c>
       <c r="C98">
-        <v>-0.02273769872621335</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.01640044552094357</v>
+      </c>
+      <c r="D98">
+        <v>0.01298111993412574</v>
+      </c>
+      <c r="E98">
+        <v>0.1165051828399235</v>
+      </c>
+      <c r="F98">
+        <v>0.04180202148322186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05598938556105294</v>
+        <v>0.0559320391790598</v>
       </c>
       <c r="C99">
-        <v>0.000105811454023119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.002462097746768877</v>
+      </c>
+      <c r="D99">
+        <v>0.06121914378875689</v>
+      </c>
+      <c r="E99">
+        <v>-0.007307464328443871</v>
+      </c>
+      <c r="F99">
+        <v>-0.0054089561907725</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1176530928525668</v>
+        <v>0.1098790480859919</v>
       </c>
       <c r="C100">
-        <v>0.03359836290845059</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.04085913568935923</v>
+      </c>
+      <c r="D100">
+        <v>0.3203700440811044</v>
+      </c>
+      <c r="E100">
+        <v>0.5197701087034383</v>
+      </c>
+      <c r="F100">
+        <v>0.6950075223798973</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02426218564740553</v>
+        <v>0.02688120776719809</v>
       </c>
       <c r="C101">
-        <v>-0.009827782790118341</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.009332605315860793</v>
+      </c>
+      <c r="D101">
+        <v>0.04157609900778929</v>
+      </c>
+      <c r="E101">
+        <v>0.006374151160549008</v>
+      </c>
+      <c r="F101">
+        <v>-0.02249287959400638</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
